--- a/raw data/canals.xlsx
+++ b/raw data/canals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C772AE1-E47C-3147-83A5-C2B4F8A1A9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CDD556-2060-2F4B-ACCF-5BFB12C9B23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="980" windowWidth="21500" windowHeight="15800" xr2:uid="{4DCAB27C-652C-4B42-9B19-D18472EAFD2F}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15760" xr2:uid="{DEF14DA6-5A07-E740-8A23-120C5FC85183}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>TABLE A—MILEAGE OF COMPLETED CANALS(Unit: 1 mile)</t>
+    <t>TABLE A—MILEAGE OF COMPLETED CANALS</t>
   </si>
   <si>
     <t>Year</t>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Total mileage</t>
-  </si>
-  <si>
-    <t>183 r</t>
   </si>
 </sst>
 </file>
@@ -402,22 +399,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97F8577-9567-9B49-B348-22E7F3D78064}">
-  <dimension ref="A1:C45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCB52EC-E3DD-4142-8336-C37D8149BD6A}">
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -443,382 +443,382 @@
         <v>30</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1802</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>52</v>
+      </c>
+    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1819</v>
+      </c>
+      <c r="B6">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1804</v>
+        <v>1821</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>79</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1825</v>
+      </c>
+      <c r="B8">
+        <v>422</v>
+      </c>
+      <c r="C8">
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1819</v>
+        <v>1826</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C9">
-        <v>155</v>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1827</v>
+      </c>
+      <c r="B10">
+        <v>85</v>
+      </c>
+      <c r="C10">
+        <v>772</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1821</v>
+        <v>1828</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="C11">
-        <v>203</v>
+        <v>943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1829</v>
+      </c>
+      <c r="B12">
+        <v>86</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1029</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1825</v>
+        <v>1830</v>
       </c>
       <c r="B13">
-        <v>422</v>
-      </c>
-      <c r="C13">
-        <v>625</v>
+        <v>456</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1485</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1826</v>
+        <v>1831</v>
       </c>
       <c r="B14">
-        <v>62</v>
-      </c>
-      <c r="C14">
-        <v>687</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1597</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1827</v>
+        <v>1832</v>
       </c>
       <c r="B15">
-        <v>85</v>
-      </c>
-      <c r="C15">
-        <v>772</v>
+        <v>318</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1915</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1828</v>
+        <v>1833</v>
       </c>
       <c r="B16">
-        <v>171</v>
-      </c>
-      <c r="C16">
-        <v>943</v>
+        <v>170</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2085</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1829</v>
+        <v>1834</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="C17" s="1">
-        <v>1029</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="B18">
-        <v>456</v>
+        <v>154</v>
       </c>
       <c r="C18" s="1">
-        <v>1485</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
+      <c r="A19">
+        <v>1836</v>
       </c>
       <c r="B19">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>1597</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1832</v>
+        <v>1837</v>
       </c>
       <c r="B20">
-        <v>318</v>
+        <v>168</v>
       </c>
       <c r="C20" s="1">
-        <v>1915</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="B21">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="C21" s="1">
-        <v>2085</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="B22">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="C22" s="1">
-        <v>2292</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1835</v>
+        <v>1840</v>
       </c>
       <c r="B23">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c r="C23" s="1">
-        <v>2446</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1836</v>
-      </c>
-      <c r="B24">
-        <v>18</v>
+        <v>1841</v>
       </c>
       <c r="C24" s="1">
-        <v>2464</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1837</v>
+        <v>1842</v>
       </c>
       <c r="B25">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1">
-        <v>2632</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1838</v>
+        <v>1843</v>
       </c>
       <c r="B26">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1">
-        <v>2777</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1839</v>
+        <v>1844</v>
       </c>
       <c r="B27">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="C27" s="1">
-        <v>2941</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1840</v>
-      </c>
-      <c r="B28">
-        <v>295</v>
+        <v>1845</v>
       </c>
       <c r="C28" s="1">
-        <v>3236</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1841</v>
+        <v>1846</v>
+      </c>
+      <c r="B29">
+        <v>84</v>
       </c>
       <c r="C29" s="1">
-        <v>3236</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1842</v>
+        <v>1847</v>
       </c>
       <c r="B30">
         <v>12</v>
       </c>
       <c r="C30" s="1">
-        <v>3248</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1843</v>
+        <v>1848</v>
       </c>
       <c r="B31">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C31" s="1">
-        <v>3315</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1844</v>
+        <v>1849</v>
       </c>
       <c r="B32">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1">
-        <v>3405</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1845</v>
+        <v>1850</v>
+      </c>
+      <c r="B33">
+        <v>153</v>
       </c>
       <c r="C33" s="1">
-        <v>3405</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1846</v>
+        <v>1851</v>
       </c>
       <c r="B34">
-        <v>84</v>
+        <v>436</v>
       </c>
       <c r="C34" s="1">
-        <v>3489</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1847</v>
+        <v>1855</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1">
-        <v>3501</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1848</v>
+        <v>1859</v>
       </c>
       <c r="B36">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1">
-        <v>3603</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1849</v>
+        <v>1860</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1">
-        <v>3639</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1850</v>
+        <v>1861</v>
       </c>
       <c r="B38">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1">
-        <v>3792</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1851</v>
-      </c>
-      <c r="B39">
-        <v>436</v>
-      </c>
-      <c r="C39" s="1">
-        <v>4228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1855</v>
-      </c>
-      <c r="B41">
-        <v>7</v>
-      </c>
-      <c r="C41" s="1">
-        <v>4235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>1859</v>
-      </c>
-      <c r="B43">
-        <v>11</v>
-      </c>
-      <c r="C43" s="1">
-        <v>4246</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>1860</v>
-      </c>
-      <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44" s="1">
-        <v>4254</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>1861</v>
-      </c>
-      <c r="B45">
-        <v>7</v>
-      </c>
-      <c r="C45" s="1">
         <v>4261</v>
       </c>
     </row>
